--- a/Result/PerformanceReport.xlsx
+++ b/Result/PerformanceReport.xlsx
@@ -5,24 +5,31 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Projects\DigitRecognition\MNIST_DR\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Projects\DigitRecognition\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$12:$G$41</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId4"/>
+  </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
   <si>
     <t>Config-ID</t>
   </si>
@@ -343,6 +350,63 @@
   </si>
   <si>
     <t>M07_L10.24</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>0&lt;=VA&lt;91</t>
+  </si>
+  <si>
+    <t>91&lt;=VA&lt;94%</t>
+  </si>
+  <si>
+    <t>94&lt;=VA&lt;96%</t>
+  </si>
+  <si>
+    <t>96&lt;=VA&lt;=100%</t>
+  </si>
+  <si>
+    <t>Category based on Validation Accuracy</t>
+  </si>
+  <si>
+    <t>Hidden Layer Config</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Activation Unit Config</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Reverse Exponential</t>
+  </si>
+  <si>
+    <t>Activation unit Config</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Validation Accuracy</t>
   </si>
 </sst>
 </file>
@@ -435,7 +499,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,6 +512,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -472,6 +541,5149 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Suitable Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Configuration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$B$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$103:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0&lt;=VA&lt;91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91&lt;=VA&lt;94%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94&lt;=VA&lt;96%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96&lt;=VA&lt;=100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$103:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB8D-4DF5-9046-EF87C37BC0A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="89459151"/>
+        <c:axId val="89459983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89459151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Validation Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89459983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89459983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Models</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89459151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PerformanceReport.xlsx]Sheet6!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lambda vs Validation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Accuracy Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81BE-4992-B7CC-4114834EBE68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1269220143"/>
+        <c:axId val="1269215983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1269220143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lambda</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269215983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269215983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VA Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269220143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PerformanceReport.xlsx]Sheet6!PivotTable6</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hodden Layer Size VS VA Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Large</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$37:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AD7-4AA6-AFD7-AF62EA539DFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1265589807"/>
+        <c:axId val="1265585231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1265589807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hidden</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Layer Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265585231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1265585231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VA Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265589807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[PerformanceReport.xlsx]Sheet6!PivotTable7</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Activation Unit Confug VS. VA Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$62:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Equal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Exponential</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Reverse Exponential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$62:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D52B-4EBB-910D-0F804E8E136A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1270666543"/>
+        <c:axId val="1270664879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1270666543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Activation Unit Config</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270664879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1270664879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270666543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Joy Julian Gomes" refreshedDate="43217.525325462964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A12:G41" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Config-ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="9"/>
+    </cacheField>
+    <cacheField name="Lambda" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="10.24" count="11">
+        <n v="0.01"/>
+        <n v="0.02"/>
+        <n v="0.04"/>
+        <n v="0.08"/>
+        <n v="0.16"/>
+        <n v="0.32"/>
+        <n v="0.64"/>
+        <n v="1.28"/>
+        <n v="2.56"/>
+        <n v="5.12"/>
+        <n v="10.24"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Hidden Layer Config" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Small"/>
+        <s v="Large"/>
+        <s v="Medium"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Activation unit Config" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Equal"/>
+        <s v="Exponential"/>
+        <s v="Reverse Exponential"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Training Accuracy" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.96879999999999999" maxValue="0.98950000000000005"/>
+    </cacheField>
+    <cacheField name="Validation Accuracy" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.96" maxValue="0.9718"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+  <r>
+    <s v="M03_L00.01"/>
+    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98350000000000004"/>
+    <n v="0.96220000000000006"/>
+  </r>
+  <r>
+    <s v="M03_L00.02"/>
+    <n v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98450000000000004"/>
+    <n v="0.96140000000000003"/>
+  </r>
+  <r>
+    <s v="M03_L00.04"/>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98499999999999999"/>
+    <n v="0.96099999999999997"/>
+  </r>
+  <r>
+    <s v="M03_L00.08"/>
+    <n v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98640000000000005"/>
+    <n v="0.9637"/>
+  </r>
+  <r>
+    <s v="M03_L00.16"/>
+    <n v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98509999999999998"/>
+    <n v="0.96279999999999999"/>
+  </r>
+  <r>
+    <s v="M03_L00.32"/>
+    <n v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98070000000000002"/>
+    <n v="0.96179999999999999"/>
+  </r>
+  <r>
+    <s v="M03_L00.64"/>
+    <n v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98509999999999998"/>
+    <n v="0.96389999999999998"/>
+  </r>
+  <r>
+    <s v="M03_L01.28"/>
+    <n v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.9829"/>
+    <n v="0.96589999999999998"/>
+  </r>
+  <r>
+    <s v="M03_L02.56"/>
+    <n v="3"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.97789999999999999"/>
+    <n v="0.96560000000000001"/>
+  </r>
+  <r>
+    <s v="M03_L05.12"/>
+    <n v="3"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98340000000000005"/>
+    <n v="0.97099999999999997"/>
+  </r>
+  <r>
+    <s v="M03_L10.24"/>
+    <n v="3"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.98009999999999997"/>
+    <n v="0.9718"/>
+  </r>
+  <r>
+    <s v="M04_L10.24"/>
+    <n v="4"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.96879999999999999"/>
+    <n v="0.96230000000000004"/>
+  </r>
+  <r>
+    <s v="M06_L00.01"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98460000000000003"/>
+    <n v="0.96309999999999996"/>
+  </r>
+  <r>
+    <s v="M06_L00.02"/>
+    <n v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98460000000000003"/>
+    <n v="0.9627"/>
+  </r>
+  <r>
+    <s v="M06_L00.04"/>
+    <n v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98650000000000004"/>
+    <n v="0.96279999999999999"/>
+  </r>
+  <r>
+    <s v="M06_L00.08"/>
+    <n v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98440000000000005"/>
+    <n v="0.96220000000000006"/>
+  </r>
+  <r>
+    <s v="M06_L00.16"/>
+    <n v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98640000000000005"/>
+    <n v="0.96189999999999998"/>
+  </r>
+  <r>
+    <s v="M06_L00.32"/>
+    <n v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98429999999999995"/>
+    <n v="0.96319999999999995"/>
+  </r>
+  <r>
+    <s v="M06_L00.64"/>
+    <n v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98550000000000004"/>
+    <n v="0.96460000000000001"/>
+  </r>
+  <r>
+    <s v="M06_L01.28"/>
+    <n v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98950000000000005"/>
+    <n v="0.96870000000000001"/>
+  </r>
+  <r>
+    <s v="M06_L02.56"/>
+    <n v="6"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98309999999999997"/>
+    <n v="0.96799999999999997"/>
+  </r>
+  <r>
+    <s v="M06_L05.12"/>
+    <n v="6"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.98199999999999998"/>
+    <n v="0.96779999999999999"/>
+  </r>
+  <r>
+    <s v="M06_L10.24"/>
+    <n v="6"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.97889999999999999"/>
+    <n v="0.97150000000000003"/>
+  </r>
+  <r>
+    <s v="M08_L10.24"/>
+    <n v="8"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.97019999999999995"/>
+    <n v="0.96230000000000004"/>
+  </r>
+  <r>
+    <s v="M09_L00.32"/>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.97929999999999995"/>
+    <n v="0.96"/>
+  </r>
+  <r>
+    <s v="M09_L01.28"/>
+    <n v="9"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.97850000000000004"/>
+    <n v="0.96030000000000004"/>
+  </r>
+  <r>
+    <s v="M09_L02.56"/>
+    <n v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.97470000000000001"/>
+    <n v="0.96109999999999995"/>
+  </r>
+  <r>
+    <s v="M09_L05.12"/>
+    <n v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.97789999999999999"/>
+    <n v="0.9667"/>
+  </r>
+  <r>
+    <s v="M09_L10.24"/>
+    <n v="9"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.97450000000000003"/>
+    <n v="0.96699999999999997"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A61:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Validation Accuracy" fld="6" subtotal="count" baseField="0" baseItem="395305472"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A36:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Validation Accuracy" fld="6" subtotal="count" baseField="0" baseItem="395305472"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Validation Accuracy" fld="6" subtotal="count" baseField="0" baseItem="395305472"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,10 +6009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -812,7 +6024,9 @@
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.09765625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="2"/>
+    <col min="8" max="8" width="6.796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -840,1543 +6054,1543 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>0.01</v>
+        <v>10.24</v>
       </c>
       <c r="D2" s="2">
-        <v>0.33825</v>
+        <v>0.34717599999999998</v>
       </c>
       <c r="E2" s="2">
-        <v>0.40793099999999999</v>
+        <v>0.21743199999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>0.9597</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="G2" s="3">
-        <v>0.94540000000000002</v>
+        <v>0.9718</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>0.02</v>
+        <v>10.24</v>
       </c>
       <c r="D3" s="2">
-        <v>0.34812500000000002</v>
+        <v>0.36883500000000002</v>
       </c>
       <c r="E3" s="2">
-        <v>0.38226700000000002</v>
+        <v>0.228487</v>
       </c>
       <c r="F3" s="3">
-        <v>0.95530000000000004</v>
+        <v>0.97889999999999999</v>
       </c>
       <c r="G3" s="3">
-        <v>0.9476</v>
+        <v>0.97150000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.04</v>
+        <v>5.12</v>
       </c>
       <c r="D4" s="2">
-        <v>0.45258500000000002</v>
+        <v>0.33521299999999998</v>
       </c>
       <c r="E4" s="2">
-        <v>0.46938099999999999</v>
+        <v>0.21330299999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>0.9405</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="G4" s="3">
-        <v>0.93310000000000004</v>
+        <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>0.08</v>
+        <v>1.28</v>
       </c>
       <c r="D5" s="2">
-        <v>0.36364999999999997</v>
+        <v>0.31029800000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>0.39576499999999998</v>
+        <v>0.22380700000000001</v>
       </c>
       <c r="F5" s="3">
-        <v>0.96020000000000005</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="G5" s="3">
-        <v>0.94769999999999999</v>
+        <v>0.96870000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>0.16</v>
+        <v>2.56</v>
       </c>
       <c r="D6" s="2">
-        <v>0.50432999999999995</v>
+        <v>0.43207699999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>0.45808900000000002</v>
+        <v>0.224799</v>
       </c>
       <c r="F6" s="3">
-        <v>0.94830000000000003</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="G6" s="3">
-        <v>0.93759999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>5.12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.39582200000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.231881</v>
       </c>
       <c r="F7" s="3">
-        <v>0.93700000000000006</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="G7" s="3">
-        <v>0.93420000000000003</v>
+        <v>0.96779999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>0.64</v>
+        <v>10.24</v>
       </c>
       <c r="D8" s="2">
-        <v>0.56221299999999996</v>
+        <v>0.398669</v>
       </c>
       <c r="E8" s="2">
-        <v>0.34340900000000002</v>
+        <v>0.248249</v>
       </c>
       <c r="F8" s="3">
-        <v>0.96860000000000002</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="G8" s="3">
-        <v>0.9516</v>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>1.28</v>
+        <v>5.12</v>
       </c>
       <c r="D9" s="2">
-        <v>0.760347</v>
+        <v>0.35373900000000003</v>
       </c>
       <c r="E9" s="2">
-        <v>0.32723999999999998</v>
+        <v>0.23804600000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>0.96609999999999996</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="G9" s="3">
-        <v>0.95369999999999999</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>2.56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>1.28</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.33424199999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.24308299999999999</v>
       </c>
       <c r="F10" s="3">
-        <v>0.57509999999999994</v>
+        <v>0.9829</v>
       </c>
       <c r="G10" s="3">
-        <v>0.57830000000000004</v>
+        <v>0.96589999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>5.12</v>
+        <v>2.56</v>
       </c>
       <c r="D11" s="2">
-        <v>0.83683700000000005</v>
+        <v>0.447293</v>
       </c>
       <c r="E11" s="2">
-        <v>0.29775499999999999</v>
+        <v>0.248831</v>
       </c>
       <c r="F11" s="3">
-        <v>0.96730000000000005</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="G11" s="3">
-        <v>0.95740000000000003</v>
+        <v>0.96560000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>10.24</v>
+        <v>0.64</v>
       </c>
       <c r="D12" s="2">
-        <v>1.031018</v>
+        <v>0.29017199999999999</v>
       </c>
       <c r="E12" s="2">
-        <v>0.54224799999999995</v>
+        <v>0.25448500000000002</v>
       </c>
       <c r="F12" s="3">
-        <v>0.92320000000000002</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="G12" s="3">
-        <v>0.92510000000000003</v>
+        <v>0.96460000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>0.01</v>
+        <v>0.64</v>
       </c>
       <c r="D13" s="2">
-        <v>0.36138900000000002</v>
+        <v>0.258992</v>
       </c>
       <c r="E13" s="2">
-        <v>0.397092</v>
+        <v>0.243617</v>
       </c>
       <c r="F13" s="3">
-        <v>0.94699999999999995</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="G13" s="3">
-        <v>0.94110000000000005</v>
+        <v>0.96389999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="D14" s="2">
-        <v>0.37707000000000002</v>
+        <v>0.14297199999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>0.405644</v>
+        <v>0.25920799999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>0.94530000000000003</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="G14" s="3">
-        <v>0.93820000000000003</v>
+        <v>0.9637</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="D15" s="2">
-        <v>0.40675800000000001</v>
+        <v>0.23246600000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>0.42186600000000002</v>
+        <v>0.25503500000000001</v>
       </c>
       <c r="F15" s="3">
-        <v>0.94120000000000004</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="G15" s="3">
-        <v>0.9365</v>
+        <v>0.96319999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="D16" s="2">
-        <v>0.38473099999999999</v>
+        <v>0.145507</v>
       </c>
       <c r="E16" s="2">
-        <v>0.39349800000000001</v>
+        <v>0.26112800000000003</v>
       </c>
       <c r="F16" s="3">
-        <v>0.94769999999999999</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="G16" s="3">
-        <v>0.94169999999999998</v>
+        <v>0.96309999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <v>0.16</v>
       </c>
       <c r="D17" s="2">
-        <v>0.42579600000000001</v>
+        <v>0.17102899999999999</v>
       </c>
       <c r="E17" s="2">
-        <v>0.39591100000000001</v>
+        <v>0.26270900000000003</v>
       </c>
       <c r="F17" s="3">
-        <v>0.94640000000000002</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="G17" s="3">
-        <v>0.94240000000000002</v>
+        <v>0.96279999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
       <c r="D18" s="2">
-        <v>0.48381600000000002</v>
+        <v>0.13960700000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>0.39391799999999999</v>
+        <v>0.26053199999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>0.94769999999999999</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="G18" s="3">
-        <v>0.94110000000000005</v>
+        <v>0.96279999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
       <c r="D19" s="2">
-        <v>0.61678699999999997</v>
+        <v>0.14744699999999999</v>
       </c>
       <c r="E19" s="2">
-        <v>0.39746999999999999</v>
+        <v>0.26291999999999999</v>
       </c>
       <c r="F19" s="3">
-        <v>0.94540000000000002</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="G19" s="3">
-        <v>0.94140000000000001</v>
+        <v>0.9627</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>1.28</v>
+        <v>10.24</v>
       </c>
       <c r="D20" s="2">
-        <v>0.85238700000000001</v>
+        <v>1.0689029999999999</v>
       </c>
       <c r="E20" s="2">
-        <v>0.42230800000000002</v>
+        <v>0.26813199999999998</v>
       </c>
       <c r="F20" s="3">
-        <v>0.9405</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="G20" s="3">
-        <v>0.93559999999999999</v>
+        <v>0.96230000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="D21" s="2">
-        <v>1.221368</v>
+        <v>0.59213000000000005</v>
       </c>
       <c r="E21" s="2">
-        <v>0.43784000000000001</v>
+        <v>0.27537800000000001</v>
       </c>
       <c r="F21" s="3">
-        <v>0.93759999999999999</v>
+        <v>0.97019999999999995</v>
       </c>
       <c r="G21" s="3">
-        <v>0.93379999999999996</v>
+        <v>0.96230000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>5.12</v>
+        <v>0.01</v>
       </c>
       <c r="D22" s="2">
-        <v>1.5932649999999999</v>
+        <v>0.145679</v>
       </c>
       <c r="E22" s="2">
-        <v>0.40835100000000002</v>
+        <v>0.269399</v>
       </c>
       <c r="F22" s="3">
-        <v>0.94340000000000002</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="G22" s="3">
-        <v>0.93869999999999998</v>
+        <v>0.96220000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>10.24</v>
+        <v>0.08</v>
       </c>
       <c r="D23" s="2">
-        <v>1.309634</v>
+        <v>0.16674700000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>0.35180899999999998</v>
+        <v>0.262071</v>
       </c>
       <c r="F23" s="3">
-        <v>0.95220000000000005</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="G23" s="3">
-        <v>0.94950000000000001</v>
+        <v>0.96220000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="D24" s="2">
-        <v>0.145679</v>
+        <v>0.17937400000000001</v>
       </c>
       <c r="E24" s="2">
-        <v>0.269399</v>
+        <v>0.261874</v>
       </c>
       <c r="F24" s="3">
-        <v>0.98350000000000004</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="G24" s="3">
-        <v>0.96220000000000006</v>
+        <v>0.96189999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14241500000000001</v>
+        <v>0.23347899999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>0.26526</v>
+        <v>0.26160299999999997</v>
       </c>
       <c r="F25" s="3">
-        <v>0.98450000000000004</v>
+        <v>0.98070000000000002</v>
       </c>
       <c r="G25" s="3">
-        <v>0.96140000000000003</v>
+        <v>0.96179999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D26" s="2">
-        <v>0.145118</v>
+        <v>0.14241500000000001</v>
       </c>
       <c r="E26" s="2">
-        <v>0.26362400000000002</v>
+        <v>0.26526</v>
       </c>
       <c r="F26" s="3">
-        <v>0.98499999999999999</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="G26" s="3">
-        <v>0.96099999999999997</v>
+        <v>0.96140000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
-        <v>0.08</v>
+        <v>2.56</v>
       </c>
       <c r="D27" s="2">
-        <v>0.14297199999999999</v>
+        <v>0.39951999999999999</v>
       </c>
       <c r="E27" s="2">
-        <v>0.25920799999999999</v>
+        <v>0.26783800000000002</v>
       </c>
       <c r="F27" s="3">
-        <v>0.98640000000000005</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="G27" s="3">
-        <v>0.9637</v>
+        <v>0.96109999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="D28" s="2">
-        <v>0.17102899999999999</v>
+        <v>0.145118</v>
       </c>
       <c r="E28" s="2">
-        <v>0.26270900000000003</v>
+        <v>0.26362400000000002</v>
       </c>
       <c r="F28" s="3">
-        <v>0.98509999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G28" s="3">
-        <v>0.96279999999999999</v>
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>0.32</v>
+        <v>1.28</v>
       </c>
       <c r="D29" s="2">
-        <v>0.23347899999999999</v>
+        <v>0.311718</v>
       </c>
       <c r="E29" s="2">
-        <v>0.26160299999999997</v>
+        <v>0.269262</v>
       </c>
       <c r="F29" s="3">
-        <v>0.98070000000000002</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="G29" s="3">
-        <v>0.96179999999999999</v>
+        <v>0.96030000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="D30" s="2">
-        <v>0.258992</v>
+        <v>0.22232499999999999</v>
       </c>
       <c r="E30" s="2">
-        <v>0.243617</v>
+        <v>0.28095300000000001</v>
       </c>
       <c r="F30" s="3">
-        <v>0.98509999999999998</v>
+        <v>0.97929999999999995</v>
       </c>
       <c r="G30" s="3">
-        <v>0.96389999999999998</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2">
-        <v>1.28</v>
+        <v>10.24</v>
       </c>
       <c r="D31" s="2">
-        <v>0.33424199999999998</v>
+        <v>0.75366900000000003</v>
       </c>
       <c r="E31" s="2">
-        <v>0.24308299999999999</v>
+        <v>0.28834300000000002</v>
       </c>
       <c r="F31" s="3">
-        <v>0.9829</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="G31" s="3">
-        <v>0.96589999999999998</v>
+        <v>0.95979999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="D32" s="2">
-        <v>0.447293</v>
+        <v>0.18310199999999999</v>
       </c>
       <c r="E32" s="2">
-        <v>0.248831</v>
+        <v>0.29176000000000002</v>
       </c>
       <c r="F32" s="3">
-        <v>0.97789999999999999</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="G32" s="3">
-        <v>0.96560000000000001</v>
+        <v>0.95889999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
-        <v>5.12</v>
+        <v>0.02</v>
       </c>
       <c r="D33" s="2">
-        <v>0.33521299999999998</v>
+        <v>0.19423199999999999</v>
       </c>
       <c r="E33" s="2">
-        <v>0.21330299999999999</v>
+        <v>0.29492400000000002</v>
       </c>
       <c r="F33" s="3">
-        <v>0.98340000000000005</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="G33" s="3">
-        <v>0.97099999999999997</v>
+        <v>0.95820000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
-        <v>10.24</v>
+        <v>0.16</v>
       </c>
       <c r="D34" s="2">
-        <v>0.34717599999999998</v>
+        <v>0.21057300000000001</v>
       </c>
       <c r="E34" s="2">
-        <v>0.21743199999999999</v>
+        <v>0.28746500000000003</v>
       </c>
       <c r="F34" s="3">
-        <v>0.98009999999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="G34" s="3">
-        <v>0.9718</v>
+        <v>0.95809999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>0.64</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.28017199999999998</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.28560200000000002</v>
       </c>
       <c r="F35" s="3">
-        <v>0.91930000000000001</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="G35" s="3">
-        <v>0.91759999999999997</v>
+        <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>5.12</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.83683700000000005</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.29775499999999999</v>
       </c>
       <c r="F36" s="3">
-        <v>0.86719999999999997</v>
+        <v>0.96730000000000005</v>
       </c>
       <c r="G36" s="3">
-        <v>0.86280000000000001</v>
+        <v>0.95740000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>0.01</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.216368</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.304948</v>
       </c>
       <c r="F37" s="3">
-        <v>0.86019999999999996</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="G37" s="3">
-        <v>0.86229999999999996</v>
+        <v>0.95730000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2">
         <v>0.08</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
+      <c r="D38" s="2">
+        <v>0.221412</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.29674099999999998</v>
       </c>
       <c r="F38" s="3">
-        <v>0.90029999999999999</v>
+        <v>0.97250000000000003</v>
       </c>
       <c r="G38" s="3">
-        <v>0.89780000000000004</v>
+        <v>0.95730000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="D39" s="2">
-        <v>0.52823600000000004</v>
+        <v>0.74130499999999999</v>
       </c>
       <c r="E39" s="2">
-        <v>0.39712599999999998</v>
+        <v>0.30900899999999998</v>
       </c>
       <c r="F39" s="3">
-        <v>0.94869999999999999</v>
+        <v>0.9667</v>
       </c>
       <c r="G39" s="3">
-        <v>0.94489999999999996</v>
+        <v>0.95509999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>0.32</v>
+        <v>1.28</v>
       </c>
       <c r="D40" s="2">
-        <v>0.61248999999999998</v>
+        <v>0.760347</v>
       </c>
       <c r="E40" s="2">
-        <v>0.364757</v>
+        <v>0.32723999999999998</v>
       </c>
       <c r="F40" s="3">
-        <v>0.95730000000000004</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="G40" s="3">
-        <v>0.95079999999999998</v>
+        <v>0.95369999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
         <v>0.64</v>
       </c>
       <c r="D41" s="2">
-        <v>0.74130499999999999</v>
+        <v>0.390708</v>
       </c>
       <c r="E41" s="2">
-        <v>0.30900899999999998</v>
+        <v>0.310886</v>
       </c>
       <c r="F41" s="3">
-        <v>0.9667</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="G41" s="3">
-        <v>0.95509999999999995</v>
+        <v>0.95340000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
+        <v>5.12</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.92028100000000002</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.32699299999999998</v>
       </c>
       <c r="F42" s="3">
-        <v>0.91269999999999996</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="G42" s="3">
-        <v>0.91500000000000004</v>
+        <v>0.95240000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2">
-        <v>2.56</v>
+        <v>10.24</v>
       </c>
       <c r="D43" s="2">
-        <v>2.9898790000000002</v>
+        <v>1.9999130000000001</v>
       </c>
       <c r="E43" s="2">
-        <v>2.6849669999999999</v>
+        <v>0.34869800000000001</v>
       </c>
       <c r="F43" s="3">
-        <v>0.33139999999999997</v>
+        <v>0.95609999999999995</v>
       </c>
       <c r="G43" s="3">
-        <v>0.33110000000000001</v>
+        <v>0.95179999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>5.12</v>
+        <v>0.64</v>
       </c>
       <c r="D44" s="2">
-        <v>1.8446119999999999</v>
+        <v>0.56221299999999996</v>
       </c>
       <c r="E44" s="2">
-        <v>1.6782330000000001</v>
+        <v>0.34340900000000002</v>
       </c>
       <c r="F44" s="3">
-        <v>0.67020000000000002</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="G44" s="3">
-        <v>0.6835</v>
+        <v>0.9516</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
       </c>
       <c r="C45" s="2">
-        <v>10.24</v>
+        <v>0.32</v>
       </c>
       <c r="D45" s="2">
-        <v>1.0689029999999999</v>
+        <v>0.61248999999999998</v>
       </c>
       <c r="E45" s="2">
-        <v>0.26813199999999998</v>
+        <v>0.364757</v>
       </c>
       <c r="F45" s="3">
-        <v>0.96879999999999999</v>
+        <v>0.95730000000000004</v>
       </c>
       <c r="G45" s="3">
-        <v>0.96230000000000004</v>
+        <v>0.95079999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2">
-        <v>0.01</v>
+        <v>2.56</v>
       </c>
       <c r="D46" s="2">
-        <v>0.31532100000000002</v>
+        <v>0.71117600000000003</v>
       </c>
       <c r="E46" s="2">
-        <v>0.344999</v>
+        <v>0.33741500000000002</v>
       </c>
       <c r="F46" s="3">
-        <v>0.95630000000000004</v>
+        <v>0.96240000000000003</v>
       </c>
       <c r="G46" s="3">
-        <v>0.94779999999999998</v>
+        <v>0.94979999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2">
-        <v>0.02</v>
+        <v>10.24</v>
       </c>
       <c r="D47" s="2">
-        <v>0.36592200000000003</v>
+        <v>1.309634</v>
       </c>
       <c r="E47" s="2">
-        <v>0.37296299999999999</v>
+        <v>0.35180899999999998</v>
       </c>
       <c r="F47" s="3">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="G47" s="3">
         <v>0.94950000000000001</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.9446</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="D48" s="2">
-        <v>0.439392</v>
+        <v>0.33879500000000001</v>
       </c>
       <c r="E48" s="2">
-        <v>0.41166199999999997</v>
+        <v>0.35100500000000001</v>
       </c>
       <c r="F48" s="3">
-        <v>0.93979999999999997</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="G48" s="3">
-        <v>0.93810000000000004</v>
+        <v>0.94940000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2">
-        <v>0.08</v>
+        <v>2.56</v>
       </c>
       <c r="D49" s="2">
-        <v>0.358103</v>
+        <v>0.68223100000000003</v>
       </c>
       <c r="E49" s="2">
-        <v>0.35705399999999998</v>
+        <v>0.335812</v>
       </c>
       <c r="F49" s="3">
-        <v>0.95620000000000005</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="G49" s="3">
-        <v>0.9486</v>
+        <v>0.94930000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>5</v>
       </c>
       <c r="C50" s="2">
-        <v>0.16</v>
+        <v>2.56</v>
       </c>
       <c r="D50" s="2">
-        <v>0.45539299999999999</v>
+        <v>1.4491229999999999</v>
       </c>
       <c r="E50" s="2">
-        <v>0.38234800000000002</v>
+        <v>0.342308</v>
       </c>
       <c r="F50" s="3">
-        <v>0.94920000000000004</v>
+        <v>0.95720000000000005</v>
       </c>
       <c r="G50" s="3">
-        <v>0.94320000000000004</v>
+        <v>0.94869999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>0.32</v>
+        <v>5.12</v>
       </c>
       <c r="D51" s="2">
-        <v>0.52025500000000002</v>
+        <v>2.193975</v>
       </c>
       <c r="E51" s="2">
-        <v>0.370313</v>
+        <v>0.36235299999999998</v>
       </c>
       <c r="F51" s="3">
-        <v>0.95320000000000005</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G51" s="3">
-        <v>0.9456</v>
+        <v>0.94869999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1">
         <v>5</v>
       </c>
       <c r="C52" s="2">
-        <v>0.64</v>
+        <v>0.08</v>
       </c>
       <c r="D52" s="2">
-        <v>0.70815399999999995</v>
+        <v>0.358103</v>
       </c>
       <c r="E52" s="2">
-        <v>0.36994700000000003</v>
+        <v>0.35705399999999998</v>
       </c>
       <c r="F52" s="3">
-        <v>0.95179999999999998</v>
+        <v>0.95620000000000005</v>
       </c>
       <c r="G52" s="3">
-        <v>0.94540000000000002</v>
+        <v>0.9486</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2">
-        <v>1.28</v>
+        <v>5.12</v>
       </c>
       <c r="D53" s="2">
-        <v>1.0611429999999999</v>
+        <v>0.90338499999999999</v>
       </c>
       <c r="E53" s="2">
-        <v>0.38318200000000002</v>
+        <v>0.35568100000000002</v>
       </c>
       <c r="F53" s="3">
-        <v>0.94750000000000001</v>
+        <v>0.95920000000000005</v>
       </c>
       <c r="G53" s="3">
-        <v>0.94420000000000004</v>
+        <v>0.94820000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2">
-        <v>2.56</v>
+        <v>1.28</v>
       </c>
       <c r="D54" s="2">
-        <v>1.4491229999999999</v>
+        <v>0.60484800000000005</v>
       </c>
       <c r="E54" s="2">
-        <v>0.342308</v>
+        <v>0.36723099999999997</v>
       </c>
       <c r="F54" s="3">
-        <v>0.95720000000000005</v>
+        <v>0.95169999999999999</v>
       </c>
       <c r="G54" s="3">
-        <v>0.94869999999999999</v>
+        <v>0.94810000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
       </c>
       <c r="C55" s="2">
-        <v>5.12</v>
+        <v>0.01</v>
       </c>
       <c r="D55" s="2">
-        <v>2.193975</v>
+        <v>0.31532100000000002</v>
       </c>
       <c r="E55" s="2">
-        <v>0.36235299999999998</v>
+        <v>0.344999</v>
       </c>
       <c r="F55" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.95630000000000004</v>
       </c>
       <c r="G55" s="3">
-        <v>0.94869999999999999</v>
+        <v>0.94779999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B56" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>10.24</v>
+        <v>0.08</v>
       </c>
       <c r="D56" s="2">
-        <v>1.9999130000000001</v>
+        <v>0.36364999999999997</v>
       </c>
       <c r="E56" s="2">
-        <v>0.34869800000000001</v>
+        <v>0.39576499999999998</v>
       </c>
       <c r="F56" s="3">
-        <v>0.95609999999999995</v>
+        <v>0.96020000000000005</v>
       </c>
       <c r="G56" s="3">
-        <v>0.95179999999999998</v>
+        <v>0.94769999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D57" s="2">
-        <v>0.145507</v>
+        <v>0.34812500000000002</v>
       </c>
       <c r="E57" s="2">
-        <v>0.26112800000000003</v>
+        <v>0.38226700000000002</v>
       </c>
       <c r="F57" s="3">
-        <v>0.98460000000000003</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="G57" s="3">
-        <v>0.96309999999999996</v>
+        <v>0.9476</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" s="2">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="D58" s="2">
-        <v>0.14744699999999999</v>
+        <v>0.39317099999999999</v>
       </c>
       <c r="E58" s="2">
-        <v>0.26291999999999999</v>
+        <v>0.367031</v>
       </c>
       <c r="F58" s="3">
-        <v>0.98460000000000003</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="G58" s="3">
-        <v>0.9627</v>
+        <v>0.9476</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D59" s="2">
-        <v>0.13960700000000001</v>
+        <v>0.32966299999999998</v>
       </c>
       <c r="E59" s="2">
-        <v>0.26053199999999999</v>
+        <v>0.36637399999999998</v>
       </c>
       <c r="F59" s="3">
-        <v>0.98650000000000004</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="G59" s="3">
-        <v>0.96279999999999999</v>
+        <v>0.94669999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="D60" s="2">
-        <v>0.16674700000000001</v>
+        <v>0.31990099999999999</v>
       </c>
       <c r="E60" s="2">
-        <v>0.262071</v>
+        <v>0.360234</v>
       </c>
       <c r="F60" s="3">
-        <v>0.98440000000000005</v>
+        <v>0.95430000000000004</v>
       </c>
       <c r="G60" s="3">
-        <v>0.96220000000000006</v>
+        <v>0.9466</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="D61" s="2">
-        <v>0.17937400000000001</v>
+        <v>0.32147500000000001</v>
       </c>
       <c r="E61" s="2">
-        <v>0.261874</v>
+        <v>0.3508</v>
       </c>
       <c r="F61" s="3">
-        <v>0.98640000000000005</v>
+        <v>0.95589999999999997</v>
       </c>
       <c r="G61" s="3">
-        <v>0.96189999999999998</v>
+        <v>0.94650000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>0.32</v>
+        <v>1.28</v>
       </c>
       <c r="D62" s="2">
-        <v>0.23246600000000001</v>
+        <v>0.60999099999999995</v>
       </c>
       <c r="E62" s="2">
-        <v>0.25503500000000001</v>
+        <v>0.368674</v>
       </c>
       <c r="F62" s="3">
-        <v>0.98429999999999995</v>
+        <v>0.95569999999999999</v>
       </c>
       <c r="G62" s="3">
-        <v>0.96319999999999995</v>
+        <v>0.94589999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="D63" s="2">
-        <v>0.29017199999999999</v>
+        <v>0.52025500000000002</v>
       </c>
       <c r="E63" s="2">
-        <v>0.25448500000000002</v>
+        <v>0.370313</v>
       </c>
       <c r="F63" s="3">
-        <v>0.98550000000000004</v>
+        <v>0.95320000000000005</v>
       </c>
       <c r="G63" s="3">
-        <v>0.96460000000000001</v>
+        <v>0.9456</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2">
-        <v>1.28</v>
+        <v>0.04</v>
       </c>
       <c r="D64" s="2">
-        <v>0.31029800000000002</v>
+        <v>0.31870300000000001</v>
       </c>
       <c r="E64" s="2">
-        <v>0.22380700000000001</v>
+        <v>0.35547600000000001</v>
       </c>
       <c r="F64" s="3">
-        <v>0.98950000000000005</v>
+        <v>0.95469999999999999</v>
       </c>
       <c r="G64" s="3">
-        <v>0.96870000000000001</v>
+        <v>0.94550000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>2.56</v>
+        <v>0.01</v>
       </c>
       <c r="D65" s="2">
-        <v>0.43207699999999999</v>
+        <v>0.33825</v>
       </c>
       <c r="E65" s="2">
-        <v>0.224799</v>
+        <v>0.40793099999999999</v>
       </c>
       <c r="F65" s="3">
-        <v>0.98309999999999997</v>
+        <v>0.9597</v>
       </c>
       <c r="G65" s="3">
-        <v>0.96799999999999997</v>
+        <v>0.94540000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B66" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2">
-        <v>5.12</v>
+        <v>0.64</v>
       </c>
       <c r="D66" s="2">
-        <v>0.39582200000000001</v>
+        <v>0.70815399999999995</v>
       </c>
       <c r="E66" s="2">
-        <v>0.231881</v>
+        <v>0.36994700000000003</v>
       </c>
       <c r="F66" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="G66" s="3">
-        <v>0.96779999999999999</v>
+        <v>0.94540000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67" s="2">
-        <v>10.24</v>
+        <v>0.16</v>
       </c>
       <c r="D67" s="2">
-        <v>0.36883500000000002</v>
+        <v>0.52823600000000004</v>
       </c>
       <c r="E67" s="2">
-        <v>0.228487</v>
+        <v>0.39712599999999998</v>
       </c>
       <c r="F67" s="3">
-        <v>0.97889999999999999</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="G67" s="3">
-        <v>0.97150000000000003</v>
+        <v>0.94489999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D68" s="2">
-        <v>0.342617</v>
+        <v>0.36592200000000003</v>
       </c>
       <c r="E68" s="2">
-        <v>0.39686900000000003</v>
+        <v>0.37296299999999999</v>
       </c>
       <c r="F68" s="3">
-        <v>0.95330000000000004</v>
+        <v>0.94950000000000001</v>
       </c>
       <c r="G68" s="3">
-        <v>0.94240000000000002</v>
+        <v>0.9446</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2404,721 +7618,909 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2">
-        <v>0.04</v>
+        <v>1.28</v>
       </c>
       <c r="D70" s="2">
-        <v>0.36469299999999999</v>
+        <v>1.0611429999999999</v>
       </c>
       <c r="E70" s="2">
-        <v>0.39015300000000003</v>
+        <v>0.38318200000000002</v>
       </c>
       <c r="F70" s="3">
-        <v>0.95069999999999999</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="G70" s="3">
-        <v>0.94379999999999997</v>
+        <v>0.94420000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1">
         <v>7</v>
       </c>
       <c r="C71" s="2">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D71" s="2">
-        <v>0.32966299999999998</v>
+        <v>0.36469299999999999</v>
       </c>
       <c r="E71" s="2">
-        <v>0.36637399999999998</v>
+        <v>0.39015300000000003</v>
       </c>
       <c r="F71" s="3">
-        <v>0.95679999999999998</v>
+        <v>0.95069999999999999</v>
       </c>
       <c r="G71" s="3">
-        <v>0.94669999999999999</v>
+        <v>0.94379999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B72" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2">
         <v>0.16</v>
       </c>
       <c r="D72" s="2">
-        <v>0.38903700000000002</v>
+        <v>0.45539299999999999</v>
       </c>
       <c r="E72" s="2">
-        <v>0.39490900000000001</v>
+        <v>0.38234800000000002</v>
       </c>
       <c r="F72" s="3">
-        <v>0.95240000000000002</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="G72" s="3">
-        <v>0.94169999999999998</v>
+        <v>0.94320000000000004</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B73" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="D73" s="2">
-        <v>0.43045600000000001</v>
+        <v>0.50159600000000004</v>
       </c>
       <c r="E73" s="2">
-        <v>0.383544</v>
+        <v>0.38851400000000003</v>
       </c>
       <c r="F73" s="3">
-        <v>0.95030000000000003</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="G73" s="3">
-        <v>0.94140000000000001</v>
+        <v>0.94310000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="D74" s="2">
-        <v>0.390708</v>
+        <v>0.42579600000000001</v>
       </c>
       <c r="E74" s="2">
-        <v>0.310886</v>
+        <v>0.39591100000000001</v>
       </c>
       <c r="F74" s="3">
-        <v>0.96879999999999999</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="G74" s="3">
-        <v>0.95340000000000003</v>
+        <v>0.94240000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>7</v>
       </c>
       <c r="C75" s="2">
-        <v>1.28</v>
+        <v>0.01</v>
       </c>
       <c r="D75" s="2">
-        <v>0.60999099999999995</v>
+        <v>0.342617</v>
       </c>
       <c r="E75" s="2">
-        <v>0.368674</v>
+        <v>0.39686900000000003</v>
       </c>
       <c r="F75" s="3">
-        <v>0.95569999999999999</v>
+        <v>0.95330000000000004</v>
       </c>
       <c r="G75" s="3">
-        <v>0.94589999999999996</v>
+        <v>0.94240000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2">
-        <v>2.56</v>
+        <v>0.08</v>
       </c>
       <c r="D76" s="2">
-        <v>0.71117600000000003</v>
+        <v>0.38473099999999999</v>
       </c>
       <c r="E76" s="2">
-        <v>0.33741500000000002</v>
+        <v>0.39349800000000001</v>
       </c>
       <c r="F76" s="3">
-        <v>0.96240000000000003</v>
+        <v>0.94769999999999999</v>
       </c>
       <c r="G76" s="3">
-        <v>0.94979999999999998</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1">
         <v>7</v>
       </c>
       <c r="C77" s="2">
-        <v>5.12</v>
+        <v>0.16</v>
       </c>
       <c r="D77" s="2">
-        <v>0.90338499999999999</v>
+        <v>0.38903700000000002</v>
       </c>
       <c r="E77" s="2">
-        <v>0.35568100000000002</v>
+        <v>0.39490900000000001</v>
       </c>
       <c r="F77" s="3">
-        <v>0.95920000000000005</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="G77" s="3">
-        <v>0.94820000000000004</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2">
-        <v>10.24</v>
+        <v>0.64</v>
       </c>
       <c r="D78" s="2">
-        <v>0.75366900000000003</v>
+        <v>0.61678699999999997</v>
       </c>
       <c r="E78" s="2">
-        <v>0.28834300000000002</v>
+        <v>0.39746999999999999</v>
       </c>
       <c r="F78" s="3">
-        <v>0.96499999999999997</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="G78" s="3">
-        <v>0.95979999999999999</v>
+        <v>0.94140000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" s="2">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="D79" s="2">
-        <v>0.31990099999999999</v>
+        <v>0.43045600000000001</v>
       </c>
       <c r="E79" s="2">
-        <v>0.360234</v>
+        <v>0.383544</v>
       </c>
       <c r="F79" s="3">
-        <v>0.95430000000000004</v>
+        <v>0.95030000000000003</v>
       </c>
       <c r="G79" s="3">
-        <v>0.9466</v>
+        <v>0.94140000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D80" s="2">
-        <v>0.348632</v>
+        <v>0.36138900000000002</v>
       </c>
       <c r="E80" s="2">
-        <v>0.38045499999999999</v>
+        <v>0.397092</v>
       </c>
       <c r="F80" s="3">
-        <v>0.94950000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="G80" s="3">
-        <v>0.94040000000000001</v>
+        <v>0.94110000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="D81" s="2">
-        <v>0.31870300000000001</v>
+        <v>0.48381600000000002</v>
       </c>
       <c r="E81" s="2">
-        <v>0.35547600000000001</v>
+        <v>0.39391799999999999</v>
       </c>
       <c r="F81" s="3">
-        <v>0.95469999999999999</v>
+        <v>0.94769999999999999</v>
       </c>
       <c r="G81" s="3">
-        <v>0.94550000000000001</v>
+        <v>0.94110000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1">
         <v>8</v>
       </c>
       <c r="C82" s="2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="D82" s="2">
-        <v>0.32147500000000001</v>
+        <v>0.348632</v>
       </c>
       <c r="E82" s="2">
-        <v>0.3508</v>
+        <v>0.38045499999999999</v>
       </c>
       <c r="F82" s="3">
-        <v>0.95589999999999997</v>
+        <v>0.94950000000000001</v>
       </c>
       <c r="G82" s="3">
-        <v>0.94650000000000001</v>
+        <v>0.94040000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="B83" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C83" s="2">
-        <v>0.16</v>
+        <v>5.12</v>
       </c>
       <c r="D83" s="2">
-        <v>0.33879500000000001</v>
+        <v>1.5932649999999999</v>
       </c>
       <c r="E83" s="2">
-        <v>0.35100500000000001</v>
+        <v>0.40835100000000002</v>
       </c>
       <c r="F83" s="3">
-        <v>0.95750000000000002</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="G83" s="3">
-        <v>0.94940000000000002</v>
+        <v>0.93869999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="B84" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C84" s="2">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="D84" s="2">
-        <v>0.39317099999999999</v>
+        <v>0.37707000000000002</v>
       </c>
       <c r="E84" s="2">
-        <v>0.367031</v>
+        <v>0.405644</v>
       </c>
       <c r="F84" s="3">
-        <v>0.95409999999999995</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="G84" s="3">
-        <v>0.9476</v>
+        <v>0.93820000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B85" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" s="2">
-        <v>0.64</v>
+        <v>0.04</v>
       </c>
       <c r="D85" s="2">
-        <v>0.50159600000000004</v>
+        <v>0.439392</v>
       </c>
       <c r="E85" s="2">
-        <v>0.38851400000000003</v>
+        <v>0.41166199999999997</v>
       </c>
       <c r="F85" s="3">
-        <v>0.94740000000000002</v>
+        <v>0.93979999999999997</v>
       </c>
       <c r="G85" s="3">
-        <v>0.94310000000000005</v>
+        <v>0.93810000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2">
-        <v>1.28</v>
+        <v>0.16</v>
       </c>
       <c r="D86" s="2">
-        <v>0.60484800000000005</v>
+        <v>0.50432999999999995</v>
       </c>
       <c r="E86" s="2">
-        <v>0.36723099999999997</v>
+        <v>0.45808900000000002</v>
       </c>
       <c r="F86" s="3">
-        <v>0.95169999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="G86" s="3">
-        <v>0.94810000000000005</v>
+        <v>0.93759999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B87" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2">
-        <v>2.56</v>
+        <v>0.04</v>
       </c>
       <c r="D87" s="2">
-        <v>0.68223100000000003</v>
+        <v>0.40675800000000001</v>
       </c>
       <c r="E87" s="2">
-        <v>0.335812</v>
+        <v>0.42186600000000002</v>
       </c>
       <c r="F87" s="3">
-        <v>0.95899999999999996</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="G87" s="3">
-        <v>0.94930000000000003</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B88" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C88" s="2">
-        <v>5.12</v>
+        <v>1.28</v>
       </c>
       <c r="D88" s="2">
-        <v>0.92028100000000002</v>
+        <v>0.85238700000000001</v>
       </c>
       <c r="E88" s="2">
-        <v>0.32699299999999998</v>
+        <v>0.42230800000000002</v>
       </c>
       <c r="F88" s="3">
-        <v>0.95899999999999996</v>
+        <v>0.9405</v>
       </c>
       <c r="G88" s="3">
-        <v>0.95240000000000002</v>
+        <v>0.93559999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B89" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2">
-        <v>10.24</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0.59213000000000005</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0.27537800000000001</v>
+        <v>0.32</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F89" s="3">
-        <v>0.97019999999999995</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="G89" s="3">
-        <v>0.96230000000000004</v>
+        <v>0.93420000000000003</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B90" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C90" s="2">
-        <v>0.01</v>
+        <v>2.56</v>
       </c>
       <c r="D90" s="2">
-        <v>0.216368</v>
+        <v>1.221368</v>
       </c>
       <c r="E90" s="2">
-        <v>0.304948</v>
+        <v>0.43784000000000001</v>
       </c>
       <c r="F90" s="3">
-        <v>0.97109999999999996</v>
+        <v>0.93759999999999999</v>
       </c>
       <c r="G90" s="3">
-        <v>0.95730000000000004</v>
+        <v>0.93379999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B91" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C91" s="2">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D91" s="2">
-        <v>0.19423199999999999</v>
+        <v>0.45258500000000002</v>
       </c>
       <c r="E91" s="2">
-        <v>0.29492400000000002</v>
+        <v>0.46938099999999999</v>
       </c>
       <c r="F91" s="3">
-        <v>0.97529999999999994</v>
+        <v>0.9405</v>
       </c>
       <c r="G91" s="3">
-        <v>0.95820000000000005</v>
+        <v>0.93310000000000004</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2">
-        <v>0.04</v>
+        <v>10.24</v>
       </c>
       <c r="D92" s="2">
-        <v>0.18310199999999999</v>
+        <v>1.031018</v>
       </c>
       <c r="E92" s="2">
-        <v>0.29176000000000002</v>
+        <v>0.54224799999999995</v>
       </c>
       <c r="F92" s="3">
-        <v>0.97850000000000004</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="G92" s="3">
-        <v>0.95889999999999997</v>
+        <v>0.92510000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B93" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0.221412</v>
-      </c>
-      <c r="E93" s="2">
-        <v>0.29674099999999998</v>
+        <v>0.01</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F93" s="3">
-        <v>0.97250000000000003</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="G93" s="3">
-        <v>0.95730000000000004</v>
+        <v>0.91759999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B94" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0.21057300000000001</v>
-      </c>
-      <c r="E94" s="2">
-        <v>0.28746500000000003</v>
+        <v>1.28</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F94" s="3">
-        <v>0.97699999999999998</v>
+        <v>0.91269999999999996</v>
       </c>
       <c r="G94" s="3">
-        <v>0.95809999999999995</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B95" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0.22232499999999999</v>
-      </c>
-      <c r="E95" s="2">
-        <v>0.28095300000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F95" s="3">
-        <v>0.97929999999999995</v>
+        <v>0.90029999999999999</v>
       </c>
       <c r="G95" s="3">
-        <v>0.96</v>
+        <v>0.89780000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B96" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0.28017199999999998</v>
-      </c>
-      <c r="E96" s="2">
-        <v>0.28560200000000002</v>
+        <v>0.02</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F96" s="3">
-        <v>0.97699999999999998</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="G96" s="3">
-        <v>0.95799999999999996</v>
+        <v>0.86280000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B97" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0.311718</v>
-      </c>
-      <c r="E97" s="2">
-        <v>0.269262</v>
+        <v>0.04</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F97" s="3">
-        <v>0.97850000000000004</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="G97" s="3">
-        <v>0.96030000000000004</v>
+        <v>0.86229999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B98" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2">
-        <v>2.56</v>
+        <v>5.12</v>
       </c>
       <c r="D98" s="2">
-        <v>0.39951999999999999</v>
+        <v>1.8446119999999999</v>
       </c>
       <c r="E98" s="2">
-        <v>0.26783800000000002</v>
+        <v>1.6782330000000001</v>
       </c>
       <c r="F98" s="3">
-        <v>0.97470000000000001</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="G98" s="3">
-        <v>0.96109999999999995</v>
+        <v>0.6835</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B99" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2">
-        <v>5.12</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0.35373900000000003</v>
-      </c>
-      <c r="E99" s="2">
-        <v>0.23804600000000001</v>
+        <v>2.56</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F99" s="3">
-        <v>0.97789999999999999</v>
+        <v>0.57509999999999994</v>
       </c>
       <c r="G99" s="3">
-        <v>0.9667</v>
+        <v>0.57830000000000004</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B100" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2">
-        <v>10.24</v>
+        <v>2.56</v>
       </c>
       <c r="D100" s="2">
-        <v>0.398669</v>
+        <v>2.9898790000000002</v>
       </c>
       <c r="E100" s="2">
-        <v>0.248249</v>
+        <v>2.6849669999999999</v>
       </c>
       <c r="F100" s="3">
-        <v>0.97450000000000003</v>
+        <v>0.33139999999999997</v>
       </c>
       <c r="G100" s="3">
-        <v>0.96699999999999997</v>
-      </c>
+        <v>0.33110000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="2">
+        <f>COUNTIFS(G:G, "&gt;=0%", G:G, "&lt;91%" )</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="2">
+        <f>COUNTIFS(G:G, "&gt;=91%", G:G, "&lt;94%")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="2">
+        <f>COUNTIFS(G:G,"&gt;=94%",G:G,"&lt;96%")</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="2">
+        <f>COUNTIFS(G:G,"&gt;=96%",G:G,"&lt;=100%")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G12">
     <sortState ref="A2:G100">
-      <sortCondition ref="A1:A12"/>
+      <sortCondition descending="1" ref="G1:G12"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C68:C1048576 C1:C56">
@@ -3243,9 +8645,1114 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <webPublishItems count="2">
     <webPublishItem id="17968" divId="PerformanceReport-Model-1_17968" sourceType="sheet" destinationFile="E:\Work\Projects\DigitRecognition\MNIST_DR\Result\PerformanceReport.htm"/>
     <webPublishItem id="20057" divId="PerformanceReport-Model-1_20057" sourceType="autoFilter" destinationFile="E:\Work\Projects\DigitRecognition\MNIST_DR\Result\PerformanceReport-Model-1XC.htm"/>
   </webPublishItems>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>5.12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>10.24</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.96220000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.96140000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.9637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.96279999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.96179999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.9829</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.96589999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.96560000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.96309999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.9627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.96279999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.96220000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.96189999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.96319999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.96779999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.97150000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.96030000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10.24</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.96699999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A12:G41">
+    <sortState ref="A13:G41">
+      <sortCondition ref="A12:A41"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A13:G41">
+    <sortCondition ref="A12"/>
+  </sortState>
+  <conditionalFormatting sqref="C12:C41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D41">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E41">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F41">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G41">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F41">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E41">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Result/PerformanceReport.xlsx
+++ b/Result/PerformanceReport.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="MNIST Result" sheetId="1" r:id="rId1"/>
+    <sheet name="MNIST Shortlisted" sheetId="3" r:id="rId2"/>
+    <sheet name="MNIST Pivot" sheetId="8" r:id="rId3"/>
+    <sheet name="BN_NUM Result" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$12:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'BN_NUM Result'!$A$1:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MNIST Result'!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MNIST Shortlisted'!$A$12:$G$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="164">
   <si>
     <t>Config-ID</t>
   </si>
@@ -407,6 +408,120 @@
   </si>
   <si>
     <t>Count of Validation Accuracy</t>
+  </si>
+  <si>
+    <t>M03_L01.00</t>
+  </si>
+  <si>
+    <t>M03_L02.00</t>
+  </si>
+  <si>
+    <t>M03_L03.00</t>
+  </si>
+  <si>
+    <t>M03_L04.00</t>
+  </si>
+  <si>
+    <t>M03_L05.00</t>
+  </si>
+  <si>
+    <t>M03_L06.00</t>
+  </si>
+  <si>
+    <t>M03_L07.00</t>
+  </si>
+  <si>
+    <t>M03_L08.00</t>
+  </si>
+  <si>
+    <t>M03_L09.00</t>
+  </si>
+  <si>
+    <t>M03_L010.00</t>
+  </si>
+  <si>
+    <t>M06_L01.00</t>
+  </si>
+  <si>
+    <t>M06_L02.00</t>
+  </si>
+  <si>
+    <t>M06_L03.00</t>
+  </si>
+  <si>
+    <t>M06_L04.00</t>
+  </si>
+  <si>
+    <t>M06_L05.00</t>
+  </si>
+  <si>
+    <t>M06_L06.00</t>
+  </si>
+  <si>
+    <t>M06_L07.00</t>
+  </si>
+  <si>
+    <t>M06_L08.00</t>
+  </si>
+  <si>
+    <t>M06_L09.00</t>
+  </si>
+  <si>
+    <t>M06_L010.00</t>
+  </si>
+  <si>
+    <t>M03_L05.10</t>
+  </si>
+  <si>
+    <t>M03_L05.20</t>
+  </si>
+  <si>
+    <t>M03_L05.30</t>
+  </si>
+  <si>
+    <t>M03_L05.40</t>
+  </si>
+  <si>
+    <t>M03_L05.50</t>
+  </si>
+  <si>
+    <t>M03_L05.60</t>
+  </si>
+  <si>
+    <t>M03_L05.70</t>
+  </si>
+  <si>
+    <t>M03_L05.80</t>
+  </si>
+  <si>
+    <t>M03_L05.90</t>
+  </si>
+  <si>
+    <t>M06_L05.10</t>
+  </si>
+  <si>
+    <t>M06_L05.20</t>
+  </si>
+  <si>
+    <t>M06_L05.30</t>
+  </si>
+  <si>
+    <t>M06_L05.40</t>
+  </si>
+  <si>
+    <t>M06_L05.50</t>
+  </si>
+  <si>
+    <t>M06_L05.60</t>
+  </si>
+  <si>
+    <t>M06_L05.70</t>
+  </si>
+  <si>
+    <t>M06_L05.80</t>
+  </si>
+  <si>
+    <t>M06_L05.90</t>
   </si>
 </sst>
 </file>
@@ -588,7 +703,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,7 +744,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$B$102</c:f>
+              <c:f>'MNIST Result'!$B$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -689,7 +803,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -710,7 +823,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$103:$A$106</c:f>
+              <c:f>'MNIST Result'!$A$103:$A$106</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -730,7 +843,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$103:$B$106</c:f>
+              <c:f>'MNIST Result'!$B$103:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -802,7 +915,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -909,7 +1021,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1033,7 +1144,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PerformanceReport.xlsx]Sheet6!PivotTable5</c:name>
+    <c:name>[PerformanceReport.xlsx]MNIST Pivot!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1068,7 +1179,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1116,7 +1226,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1154,9 +1263,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1187,7 +1294,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$3</c:f>
+              <c:f>'MNIST Pivot'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1246,7 +1353,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1267,7 +1373,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$A$4:$A$15</c:f>
+              <c:f>'MNIST Pivot'!$A$4:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1308,7 +1414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$4:$B$15</c:f>
+              <c:f>'MNIST Pivot'!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1400,7 +1506,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1507,7 +1612,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1646,7 +1750,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PerformanceReport.xlsx]Sheet6!PivotTable6</c:name>
+    <c:name>[PerformanceReport.xlsx]MNIST Pivot!PivotTable6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1676,7 +1780,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1724,7 +1827,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1762,9 +1864,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1780,7 +1880,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$36</c:f>
+              <c:f>'MNIST Pivot'!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1839,7 +1939,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1860,7 +1959,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$A$37:$A$40</c:f>
+              <c:f>'MNIST Pivot'!$A$37:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1877,7 +1976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$37:$B$40</c:f>
+              <c:f>'MNIST Pivot'!$B$37:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1951,7 +2050,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2072,7 +2170,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2211,7 +2308,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PerformanceReport.xlsx]Sheet6!PivotTable7</c:name>
+    <c:name>[PerformanceReport.xlsx]MNIST Pivot!PivotTable7</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2241,7 +2338,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2289,7 +2385,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2327,9 +2422,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2345,7 +2438,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet6!$B$61</c:f>
+              <c:f>'MNIST Pivot'!$B$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2404,7 +2497,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2425,7 +2517,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$A$62:$A$65</c:f>
+              <c:f>'MNIST Pivot'!$A$62:$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2442,7 +2534,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$62:$B$65</c:f>
+              <c:f>'MNIST Pivot'!$B$62:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2511,7 +2603,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2637,7 +2728,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5067,7 +5157,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Joy Julian Gomes" refreshedDate="43217.525325462964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A12:G41" sheet="Sheet2"/>
+    <worksheetSource ref="A12:G41" sheet="MNIST Shortlisted"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Config-ID" numFmtId="0">
@@ -5387,7 +5477,101 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Validation Accuracy" fld="6" subtotal="count" baseField="0" baseItem="395305472"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A61:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5506,8 +5690,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A36:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5574,100 +5758,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0"/>
-    <pivotField dataField="1" numFmtId="10" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Validation Accuracy" fld="6" subtotal="count" baseField="0" baseItem="395305472"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6011,8 +6101,8 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8523,8 +8613,8 @@
       <sortCondition descending="1" ref="G1:G12"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C68:C1048576 C1:C56">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="C1:C56 C68:C1048576">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8535,8 +8625,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D1048576 D1:D56">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="D1:D56 D68:D1048576">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8547,8 +8637,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E1048576 E1:E56">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="E1:E56 E68:E1048576">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8559,8 +8649,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68:F1048576 F1:F56">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="F1:F56 F68:F1048576">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8571,8 +8661,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68:G1048576 G1:G56">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="G1:G56 G68:G1048576">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8584,7 +8674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8596,7 +8686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8608,7 +8698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8620,7 +8710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8632,7 +8722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8654,210 +8744,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.09765625" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>1.28</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>2.56</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>5.12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>10.24</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G41"/>
   <sheetViews>
@@ -9755,4 +9641,1834 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>5.12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>10.24</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="A1:G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="6" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.63410999999999995</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.85734699999999997</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.4554420000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.738057</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0257529999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.93908100000000005</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.328436</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0369269999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.572303</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.139022</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.7774190000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.2425759999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.7774190000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.2425759999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.7961560000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.253101</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.814737</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.262451</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.8328690000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.2730049999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.85154</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.2838609999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.8684210000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.2929280000000001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.8856660000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.3042370000000001</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.903219</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.3142670000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.9197690000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.324292</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.936601</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.3345860000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.9529829999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.344905</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.9529829999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.344905</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.1040740000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.4473229999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.2362220000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.546923</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.90480000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.3524959999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.6444570000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.64031300000000002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.85168699999999997</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.465595</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.748596</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.0334700000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.93911199999999995</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.3370070000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.0352509999999999</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.5826249999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.141967</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.7881929999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.246583</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.7881929999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.246583</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.8070280000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.2568630000000001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.825442</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.2679100000000001</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.843621</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.278011</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.8608769999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.2878620000000001</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.878925</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.2987280000000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.8962639999999999</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.3098559999999999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.913408</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.3194319999999999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.9298409999999999</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.3289010000000001</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.9466889999999999</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.3399700000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.9630399999999999</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.3508880000000001</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.9630399999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.3508880000000001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.114322</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.4534910000000001</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.2466439999999999</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.5551410000000001</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.90480000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.362727</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.6530480000000001</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G43">
+    <sortState ref="A2:G43">
+      <sortCondition ref="A1:A43"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="C65:C97 C1:C53">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D97 D1:D53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E97 E1:E53">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F97 F1:F53">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:G97 G1:G53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G97">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F97">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E97">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D97">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C97">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="5859" divId="PerformanceReport_5859" sourceType="autoFilter" destinationFile="E:\Work\Projects\DigitRecognition\Result\PerformanceReport.htm"/>
+  </webPublishItems>
+</worksheet>
 </file>